--- a/biology/Biochimie/Luis_Miramontes/Luis_Miramontes.xlsx
+++ b/biology/Biochimie/Luis_Miramontes/Luis_Miramontes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luis Ernesto Miramontes Cárdenas, né le 16 mars 1925 à Tepic, Nayarit, et mort le 13 septembre 2004 à Mexico, est un chimiste mexicain connu pour son apport à la conception de la première pilule contraceptive.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 15 octobre 1951, alors que Miramontes est âgé de seulement 26 ans (alors qu'il n'est que thésard), il synthétise la noréthistérone, qui est le composé actif principal de la pilule contraceptive. Le brevet du composé est partagé avec Carl Djerassi et George Rosenkranz, de la compagnie de chimie Laboratorios Syntex SA. Pour arriver à ce résultat Miramontes a utilisé la réduction de Birch appliquée à l'éthistérone.
 La pilule elle-même sera mise au point aux États-Unis en 1956 par le médecin Gregory Pincus et l'obstétricien John Rock. Mais le développement de la pilule ne profitera pas à Miramontes, ni au laboratoire Syntex, le professeur Pincus préférant travailler avec le laboratoire Searle.
@@ -544,7 +558,9 @@
           <t>Publications choisies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Miramontes L; Rosenkranz G; Djerassi C. 1951 Journal of the American Chemical Society 73 (7): 3540-3541 Steroids .22. The Synthesis Of 19-Nor-Progesterone
 Sandoval A; Miramontes L; Rosenkranz G; Djerassi C. 1951 Journal of the American Chemical Society 73 (3): 990-991. The Dienone Phenol Rearrangement
@@ -580,7 +596,9 @@
           <t>Inventions brevetées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Carl Djerassi, Luis Miramontes, George Rosenkranz (1956), Delta 4-19-nor-17alpha-ethinylandrosten-17beta-ol-3-one and process, Brevet US 2744122
 Carl Djerassi, Luis Miramontes (1956), Cyclopentanophenanthrene derivatives and compounds, Brevet US 2759951.
@@ -588,13 +606,13 @@
 Miramontes Luis E., Romero Miguel A, Ahuad Farjat Fortunato (1959), Preparation of 6-methyl steroids of the pregnane series from diosgenin, Brevet US 2878246.
 Miramontes Luis E., Romero Miguel A, Fritsche O, Preparation of 6-methyl steroids of the pregnane series, Brevet US 2878247.
 Miramontes Luis E. (1959), Procedure for obtaining sapogenins from natural un-dried products, Brevet US 2912362.
-Carl Djerassi, Luis Miramontes, George Rosenkranz (1959), DELTA.4-19-NOR-17.alpha.-ETHINYLANDROSTEN-17.beta.-OL-3 ONE, Brevet canadien CA 571510[1]
+Carl Djerassi, Luis Miramontes, George Rosenkranz (1959), DELTA.4-19-NOR-17.alpha.-ETHINYLANDROSTEN-17.beta.-OL-3 ONE, Brevet canadien CA 571510
 Miramontes Luis E., Romero Miguel A (1960), 12alpha-hydroxy-12beta-methyltigogenin and 12-methylene steroids derived therefrom, Brevet US 2954375.
 Miramontes Luis E., Romero Miguel A, Ahuad Farjat Fortunato (1961), 3beta-alkanoyloxy-6-methyl-5,16-pregnadien-20-ones, Brevet US 3000914.
 Miramontes Luis E. (1961), Process for the production of 3beta-hydroxy-16alpha, 17alpha-epoxy-5-pregnen-20-one, Brevet US 3004967.
 Miramontes Luis E. (1961), Resolution of sapogenin mixtures and intermediate products, Brevet US 3013010.
 Miramontes Luis E. (1962), Hecogenin azine and alkyliden-azinotigogenins, Brevet US 3033857.
-Miramontes Luis E., Fritsche Oscar, Romero Miguel A (1963), DEHYDRO-OXYGENATED-6-METHYL-16.alpha.,17.alpha.-EPOXYPREGN-20-ONE-DERIVATIVES, Brevet canadien CA 673756[2]
+Miramontes Luis E., Fritsche Oscar, Romero Miguel A (1963), DEHYDRO-OXYGENATED-6-METHYL-16.alpha.,17.alpha.-EPOXYPREGN-20-ONE-DERIVATIVES, Brevet canadien CA 673756
 Miramonte, Luis E., Flores Humberto J (1968), Process for isolation of solanum alkaloids from solanum plants, Brevet US 3385844.
 Miramonte, Luis E. (1972), Process for the conversion of exhaust gases of the internal combustion engines into harmless products, Brevet US 3808805.
 Miramontes Luis E., Castillo Cervantes Salavador, Moran Pineda Florencia M (1996), Catalytically active ceramic monoliths for the reduction of leaded gasoline fueled engine pollutants and the production thereof, Brevet US 5534475.</t>
